--- a/Internal_Nodes.xlsx
+++ b/Internal_Nodes.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JacobFo\OneDrive - City of Durham\R Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JacobFo\OneDrive - City of Durham\R Code\External-Transit-Trips\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18192" windowHeight="6660" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18192" windowHeight="6660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2935" sheetId="1" r:id="rId1"/>
     <sheet name="2951" sheetId="2" r:id="rId2"/>
     <sheet name="2952" sheetId="3" r:id="rId3"/>
+    <sheet name="total" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,9 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
   <si>
     <t>Internal_Node</t>
+  </si>
+  <si>
+    <t>Node</t>
   </si>
 </sst>
 </file>
@@ -616,15 +620,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -637,16 +641,22 @@
       <c r="D1">
         <v>2050</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>313</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>315</v>
       </c>
@@ -659,32 +669,44 @@
       <c r="D3" s="7">
         <v>4.95</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>316</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1291</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1292</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1293</v>
       </c>
@@ -697,8 +719,11 @@
       <c r="D7" s="7">
         <v>13.62</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1294</v>
       </c>
@@ -711,24 +736,33 @@
       <c r="D8" s="7">
         <v>59.65</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1296</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1298</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1300</v>
       </c>
@@ -741,8 +775,11 @@
       <c r="D11" s="7">
         <v>50.43</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1301</v>
       </c>
@@ -755,78 +792,108 @@
       <c r="D12" s="7">
         <v>11.32</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1303</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1310</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1311</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1483</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1485</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1491</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1501</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
-    </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1523</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1596</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="13"/>
+      <c r="E21">
+        <v>2935</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -835,10 +902,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -846,7 +913,7 @@
     <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -859,22 +926,31 @@
       <c r="D1">
         <v>2050</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>313</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>315</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="10"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>316</v>
       </c>
@@ -887,8 +963,11 @@
       <c r="D4" s="18">
         <v>12.49</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1291</v>
       </c>
@@ -901,8 +980,11 @@
       <c r="D5" s="7">
         <v>25.39</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1292</v>
       </c>
@@ -915,8 +997,11 @@
       <c r="D6" s="7">
         <v>39.369999999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1293</v>
       </c>
@@ -929,8 +1014,11 @@
       <c r="D7" s="7">
         <v>22.69</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1294</v>
       </c>
@@ -943,8 +1031,11 @@
       <c r="D8" s="7">
         <v>8.5399999999999991</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1296</v>
       </c>
@@ -957,16 +1048,22 @@
       <c r="D9" s="7">
         <v>56.44</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1298</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1300</v>
       </c>
@@ -979,8 +1076,11 @@
       <c r="D11" s="7">
         <v>145.34</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1301</v>
       </c>
@@ -993,16 +1093,22 @@
       <c r="D12" s="7">
         <v>13.42</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1303</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1310</v>
       </c>
@@ -1015,8 +1121,11 @@
       <c r="D14" s="7">
         <v>19.61</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1311</v>
       </c>
@@ -1029,8 +1138,11 @@
       <c r="D15" s="7">
         <v>21.12</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1483</v>
       </c>
@@ -1043,8 +1155,11 @@
       <c r="D16" s="7">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1485</v>
       </c>
@@ -1057,8 +1172,11 @@
       <c r="D17" s="7">
         <v>16.78</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1491</v>
       </c>
@@ -1071,8 +1189,11 @@
       <c r="D18" s="7">
         <v>35.46</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1501</v>
       </c>
@@ -1085,16 +1206,22 @@
       <c r="D19" s="7">
         <v>29.55</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1523</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1596</v>
       </c>
@@ -1106,6 +1233,9 @@
       </c>
       <c r="D21" s="7">
         <v>11.12</v>
+      </c>
+      <c r="E21">
+        <v>2951</v>
       </c>
     </row>
   </sheetData>
@@ -1115,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E2" sqref="E2:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1126,7 +1256,7 @@
     <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1139,8 +1269,11 @@
       <c r="D1">
         <v>2050</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>313</v>
       </c>
@@ -1153,8 +1286,11 @@
       <c r="D2" s="18">
         <v>300.39999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>315</v>
       </c>
@@ -1167,8 +1303,11 @@
       <c r="D3" s="7">
         <v>15.33</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>316</v>
       </c>
@@ -1181,16 +1320,22 @@
       <c r="D4" s="7">
         <v>5.13</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1291</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="20"/>
       <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1292</v>
       </c>
@@ -1203,32 +1348,44 @@
       <c r="D6" s="7">
         <v>12.56</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1293</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="20"/>
       <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1294</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="20"/>
       <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1296</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="20"/>
       <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1298</v>
       </c>
@@ -1241,8 +1398,11 @@
       <c r="D10" s="7">
         <v>23.08</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1300</v>
       </c>
@@ -1255,16 +1415,22 @@
       <c r="D11" s="7">
         <v>21.87</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1301</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="20"/>
       <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1303</v>
       </c>
@@ -1277,16 +1443,22 @@
       <c r="D13" s="7">
         <v>3.46</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1310</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="20"/>
       <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1311</v>
       </c>
@@ -1299,40 +1471,55 @@
       <c r="D15" s="7">
         <v>24.62</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1483</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="20"/>
       <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1485</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="20"/>
       <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1491</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="20"/>
       <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1501</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="20"/>
       <c r="D19" s="10"/>
-    </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1523</v>
       </c>
@@ -1345,14 +1532,20 @@
       <c r="D20" s="7">
         <v>4.54</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1596</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="21"/>
       <c r="D21" s="13"/>
+      <c r="E21">
+        <v>2952</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1360,22 +1553,871 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>2016</v>
+      </c>
+      <c r="C1">
+        <v>2045</v>
+      </c>
+      <c r="D1">
+        <v>2050</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>313</v>
+      </c>
+      <c r="B2" s="16">
+        <v>190.54</v>
+      </c>
+      <c r="C2" s="17">
+        <v>204.15</v>
+      </c>
+      <c r="D2" s="18">
+        <v>300.39999999999998</v>
+      </c>
+      <c r="E2">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>315</v>
+      </c>
+      <c r="B3" s="5">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="C3" s="19">
+        <v>10.41</v>
+      </c>
+      <c r="D3" s="7">
+        <v>15.33</v>
+      </c>
+      <c r="E3">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>316</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3.25</v>
+      </c>
+      <c r="C4" s="19">
+        <v>3.49</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5.13</v>
+      </c>
+      <c r="E4">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>1291</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="10"/>
+      <c r="E5">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>1292</v>
+      </c>
+      <c r="B6" s="5">
+        <v>7.97</v>
+      </c>
+      <c r="C6" s="19">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="D6" s="7">
+        <v>12.56</v>
+      </c>
+      <c r="E6">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>1293</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="10"/>
+      <c r="E7">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>1294</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>1296</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>1298</v>
+      </c>
+      <c r="B10" s="5">
+        <v>14.64</v>
+      </c>
+      <c r="C10" s="19">
+        <v>15.68</v>
+      </c>
+      <c r="D10" s="7">
+        <v>23.08</v>
+      </c>
+      <c r="E10">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>1300</v>
+      </c>
+      <c r="B11" s="5">
+        <v>13.87</v>
+      </c>
+      <c r="C11" s="19">
+        <v>14.86</v>
+      </c>
+      <c r="D11" s="7">
+        <v>21.87</v>
+      </c>
+      <c r="E11">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>1301</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="10"/>
+      <c r="E12">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>1303</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C13" s="19">
+        <v>2.35</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3.46</v>
+      </c>
+      <c r="E13">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>1310</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="10"/>
+      <c r="E14">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>1311</v>
+      </c>
+      <c r="B15" s="5">
+        <v>15.61</v>
+      </c>
+      <c r="C15" s="19">
+        <v>16.73</v>
+      </c>
+      <c r="D15" s="7">
+        <v>24.62</v>
+      </c>
+      <c r="E15">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>1483</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="10"/>
+      <c r="E16">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>1485</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="10"/>
+      <c r="E17">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>1491</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="10"/>
+      <c r="E18">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>1501</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="10"/>
+      <c r="E19">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>1523</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2.88</v>
+      </c>
+      <c r="C20" s="19">
+        <v>3.08</v>
+      </c>
+      <c r="D20" s="7">
+        <v>4.54</v>
+      </c>
+      <c r="E20">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>1596</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="13"/>
+      <c r="E21">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>313</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="4"/>
+      <c r="E22">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>315</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="10"/>
+      <c r="E23">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>316</v>
+      </c>
+      <c r="B24" s="16">
+        <v>7.25</v>
+      </c>
+      <c r="C24" s="22">
+        <v>10.28</v>
+      </c>
+      <c r="D24" s="18">
+        <v>12.49</v>
+      </c>
+      <c r="E24">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>1291</v>
+      </c>
+      <c r="B25" s="5">
+        <v>14.74</v>
+      </c>
+      <c r="C25" s="6">
+        <v>20.9</v>
+      </c>
+      <c r="D25" s="7">
+        <v>25.39</v>
+      </c>
+      <c r="E25">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>1292</v>
+      </c>
+      <c r="B26" s="5">
+        <v>25.9</v>
+      </c>
+      <c r="C26" s="6">
+        <v>29.3</v>
+      </c>
+      <c r="D26" s="7">
+        <v>39.369999999999997</v>
+      </c>
+      <c r="E26">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>1293</v>
+      </c>
+      <c r="B27" s="5">
+        <v>10.11</v>
+      </c>
+      <c r="C27" s="6">
+        <v>21.77</v>
+      </c>
+      <c r="D27" s="7">
+        <v>22.69</v>
+      </c>
+      <c r="E27">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>1294</v>
+      </c>
+      <c r="B28" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="C28" s="6">
+        <v>7.03</v>
+      </c>
+      <c r="D28" s="7">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="E28">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>1296</v>
+      </c>
+      <c r="B29" s="5">
+        <v>32.75</v>
+      </c>
+      <c r="C29" s="6">
+        <v>46.45</v>
+      </c>
+      <c r="D29" s="7">
+        <v>56.44</v>
+      </c>
+      <c r="E29">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>1298</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>1300</v>
+      </c>
+      <c r="B31" s="5">
+        <v>84.35</v>
+      </c>
+      <c r="C31" s="6">
+        <v>119.62</v>
+      </c>
+      <c r="D31" s="7">
+        <v>145.34</v>
+      </c>
+      <c r="E31">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>1301</v>
+      </c>
+      <c r="B32" s="5">
+        <v>7.79</v>
+      </c>
+      <c r="C32" s="6">
+        <v>11.04</v>
+      </c>
+      <c r="D32" s="7">
+        <v>13.42</v>
+      </c>
+      <c r="E32">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>1303</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
+      <c r="E33">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>1310</v>
+      </c>
+      <c r="B34" s="5">
+        <v>11.38</v>
+      </c>
+      <c r="C34" s="6">
+        <v>16.14</v>
+      </c>
+      <c r="D34" s="7">
+        <v>19.61</v>
+      </c>
+      <c r="E34">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>1311</v>
+      </c>
+      <c r="B35" s="5">
+        <v>12.25</v>
+      </c>
+      <c r="C35" s="6">
+        <v>17.38</v>
+      </c>
+      <c r="D35" s="7">
+        <v>21.12</v>
+      </c>
+      <c r="E35">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>1483</v>
+      </c>
+      <c r="B36" s="5">
+        <v>7.2</v>
+      </c>
+      <c r="C36" s="6">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D36" s="7">
+        <v>12.4</v>
+      </c>
+      <c r="E36">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>1485</v>
+      </c>
+      <c r="B37" s="5">
+        <v>9.74</v>
+      </c>
+      <c r="C37" s="6">
+        <v>13.81</v>
+      </c>
+      <c r="D37" s="7">
+        <v>16.78</v>
+      </c>
+      <c r="E37">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>1491</v>
+      </c>
+      <c r="B38" s="5">
+        <v>20.57</v>
+      </c>
+      <c r="C38" s="6">
+        <v>29.18</v>
+      </c>
+      <c r="D38" s="7">
+        <v>35.46</v>
+      </c>
+      <c r="E38">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>1501</v>
+      </c>
+      <c r="B39" s="5">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="C39" s="6">
+        <v>24.32</v>
+      </c>
+      <c r="D39" s="7">
+        <v>29.55</v>
+      </c>
+      <c r="E39">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>1523</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="10"/>
+      <c r="E40">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>1596</v>
+      </c>
+      <c r="B41" s="23">
+        <v>6.45</v>
+      </c>
+      <c r="C41" s="24">
+        <v>9.15</v>
+      </c>
+      <c r="D41" s="7">
+        <v>11.12</v>
+      </c>
+      <c r="E41">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>313</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="4"/>
+      <c r="E42">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>315</v>
+      </c>
+      <c r="B43" s="5">
+        <v>2.19</v>
+      </c>
+      <c r="C43" s="6">
+        <v>2.06</v>
+      </c>
+      <c r="D43" s="7">
+        <v>4.95</v>
+      </c>
+      <c r="E43">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>316</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="10"/>
+      <c r="E44">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>1291</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="10"/>
+      <c r="E45">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>1292</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="10"/>
+      <c r="E46">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>1293</v>
+      </c>
+      <c r="B47" s="5">
+        <v>6.03</v>
+      </c>
+      <c r="C47" s="6">
+        <v>5.68</v>
+      </c>
+      <c r="D47" s="7">
+        <v>13.62</v>
+      </c>
+      <c r="E47">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>1294</v>
+      </c>
+      <c r="B48" s="5">
+        <v>26.41</v>
+      </c>
+      <c r="C48" s="6">
+        <v>24.89</v>
+      </c>
+      <c r="D48" s="7">
+        <v>59.65</v>
+      </c>
+      <c r="E48">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>1296</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="10"/>
+      <c r="E49">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>1298</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="10"/>
+      <c r="E50">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>1300</v>
+      </c>
+      <c r="B51" s="5">
+        <v>22.33</v>
+      </c>
+      <c r="C51" s="6">
+        <v>21.04</v>
+      </c>
+      <c r="D51" s="7">
+        <v>50.43</v>
+      </c>
+      <c r="E51">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>1301</v>
+      </c>
+      <c r="B52" s="5">
+        <v>5.01</v>
+      </c>
+      <c r="C52" s="6">
+        <v>4.72</v>
+      </c>
+      <c r="D52" s="7">
+        <v>11.32</v>
+      </c>
+      <c r="E52">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>1303</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="10"/>
+      <c r="E53">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>1310</v>
+      </c>
+      <c r="B54" s="8"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="10"/>
+      <c r="E54">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>1311</v>
+      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="10"/>
+      <c r="E55">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>1483</v>
+      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="10"/>
+      <c r="E56">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>1485</v>
+      </c>
+      <c r="B57" s="8"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="10"/>
+      <c r="E57">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>1491</v>
+      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="10"/>
+      <c r="E58">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>1501</v>
+      </c>
+      <c r="B59" s="8"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="10"/>
+      <c r="E59">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>1523</v>
+      </c>
+      <c r="B60" s="8"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="10"/>
+      <c r="E60">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>1596</v>
+      </c>
+      <c r="B61" s="11"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="13"/>
+      <c r="E61">
+        <v>2935</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C7D317221856A044943958F8D4B8A380" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1e7a1838ded483948ae066981da9b9fb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ea69fe20-72d1-4e65-86f1-896a53e08944" xmlns:ns4="a44184e6-bf7f-47f2-a999-a2f7cf133015" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0c41df59a8aa8d67b57d223b4dad3004" ns3:_="" ns4:_="">
     <xsd:import namespace="ea69fe20-72d1-4e65-86f1-896a53e08944"/>
@@ -1572,32 +2614,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0751CF3-2D47-40B2-9FB7-7B1990CAE339}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a44184e6-bf7f-47f2-a999-a2f7cf133015"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ea69fe20-72d1-4e65-86f1-896a53e08944"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4F82EB4-A71C-4F08-BA4F-C93E530D879A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{315FC400-10D9-4781-8E3A-3E6E69A39602}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1614,4 +2646,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4F82EB4-A71C-4F08-BA4F-C93E530D879A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0751CF3-2D47-40B2-9FB7-7B1990CAE339}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a44184e6-bf7f-47f2-a999-a2f7cf133015"/>
+    <ds:schemaRef ds:uri="ea69fe20-72d1-4e65-86f1-896a53e08944"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>